--- a/Тестовое задание АО ТЭК Торг 1 Король И.В..xlsx
+++ b/Тестовое задание АО ТЭК Торг 1 Король И.В..xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win10\Desktop\repo-test2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520"/>
   </bookViews>
@@ -297,7 +302,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -573,6 +578,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -581,32 +595,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,6 +622,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -665,7 +673,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -700,7 +708,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -911,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,11 +968,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="39">
+      <c r="A5" s="32">
         <v>1</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
@@ -979,9 +987,9 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
         <v>11</v>
@@ -994,10 +1002,10 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1009,10 +1017,10 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
@@ -1024,10 +1032,10 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1039,10 +1047,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="5" t="s">
         <v>23</v>
       </c>
@@ -1054,10 +1062,10 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1069,10 +1077,10 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="5" t="s">
         <v>24</v>
       </c>
@@ -1150,11 +1158,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
+      <c r="A17" s="32">
         <v>2</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="2" t="s">
         <v>76</v>
       </c>
@@ -1169,9 +1177,9 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="6"/>
       <c r="E18" s="5" t="s">
         <v>11</v>
@@ -1184,9 +1192,9 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="6"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
@@ -1199,9 +1207,9 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="6"/>
       <c r="E20" s="5" t="s">
         <v>80</v>
@@ -1214,9 +1222,9 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="6"/>
       <c r="E21" s="5" t="s">
         <v>82</v>
@@ -1229,9 +1237,9 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="6"/>
       <c r="E22" s="5" t="s">
         <v>23</v>
@@ -1244,9 +1252,9 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="7"/>
       <c r="E23" s="5" t="s">
         <v>77</v>
@@ -1310,11 +1318,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
+      <c r="A27" s="32">
         <v>3</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="2" t="s">
         <v>84</v>
       </c>
@@ -1329,9 +1337,9 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="6"/>
       <c r="E28" s="5" t="s">
         <v>11</v>
@@ -1344,9 +1352,9 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="6"/>
       <c r="E29" s="5" t="s">
         <v>13</v>
@@ -1359,9 +1367,9 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="6"/>
       <c r="E30" s="5" t="s">
         <v>80</v>
@@ -1374,9 +1382,9 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="6"/>
       <c r="E31" s="5" t="s">
         <v>82</v>
@@ -1389,9 +1397,9 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="6"/>
       <c r="E32" s="5" t="s">
         <v>23</v>
@@ -1404,9 +1412,9 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="7"/>
       <c r="E33" s="5" t="s">
         <v>85</v>
@@ -1470,11 +1478,11 @@
       </c>
     </row>
     <row r="37" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="42">
+      <c r="A37" s="38">
         <v>4</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
       <c r="D37" s="1" t="s">
         <v>25</v>
       </c>
@@ -1489,9 +1497,9 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="33"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="2"/>
       <c r="E38" s="5" t="s">
         <v>11</v>
@@ -1504,9 +1512,9 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="33"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="6"/>
       <c r="E39" s="5" t="s">
         <v>13</v>
@@ -1519,9 +1527,9 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="33"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="36"/>
       <c r="D40" s="6"/>
       <c r="E40" s="5" t="s">
         <v>80</v>
@@ -1534,9 +1542,9 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="33"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="6"/>
       <c r="E41" s="5" t="s">
         <v>81</v>
@@ -1549,9 +1557,9 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="33"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="6"/>
       <c r="E42" s="5" t="s">
         <v>23</v>
@@ -1564,9 +1572,9 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="33"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="36"/>
       <c r="D43" s="6"/>
       <c r="E43" s="5" t="s">
         <v>21</v>
@@ -1579,9 +1587,9 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="33"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="36"/>
       <c r="D44" s="6"/>
       <c r="E44" s="5" t="s">
         <v>24</v>
@@ -1660,11 +1668,11 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="39">
+      <c r="A49" s="32">
         <v>5</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
       <c r="D49" s="2" t="s">
         <v>79</v>
       </c>
@@ -1679,9 +1687,9 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="6"/>
       <c r="E50" s="5" t="s">
         <v>11</v>
@@ -1694,9 +1702,9 @@
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="6"/>
       <c r="E51" s="5" t="s">
         <v>13</v>
@@ -1709,9 +1717,9 @@
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
       <c r="D52" s="6"/>
       <c r="E52" s="5" t="s">
         <v>15</v>
@@ -1724,9 +1732,9 @@
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
       <c r="D53" s="6"/>
       <c r="E53" s="5" t="s">
         <v>26</v>
@@ -1739,9 +1747,9 @@
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
       <c r="D54" s="6"/>
       <c r="E54" s="5" t="s">
         <v>23</v>
@@ -1754,9 +1762,9 @@
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
       <c r="D55" s="7"/>
       <c r="E55" s="5" t="s">
         <v>77</v>
@@ -1820,11 +1828,11 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="39">
+      <c r="A59" s="32">
         <v>6</v>
       </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
       <c r="D59" s="2" t="s">
         <v>87</v>
       </c>
@@ -1839,9 +1847,9 @@
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
       <c r="D60" s="6"/>
       <c r="E60" s="5" t="s">
         <v>11</v>
@@ -1854,9 +1862,9 @@
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
       <c r="D61" s="6"/>
       <c r="E61" s="5" t="s">
         <v>13</v>
@@ -1869,9 +1877,9 @@
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
       <c r="D62" s="6"/>
       <c r="E62" s="5" t="s">
         <v>80</v>
@@ -1884,9 +1892,9 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
       <c r="D63" s="6"/>
       <c r="E63" s="5" t="s">
         <v>26</v>
@@ -1899,9 +1907,9 @@
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
       <c r="D64" s="6"/>
       <c r="E64" s="5" t="s">
         <v>23</v>
@@ -1914,9 +1922,9 @@
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
       <c r="D65" s="7"/>
       <c r="E65" s="5" t="s">
         <v>85</v>
@@ -1980,11 +1988,11 @@
       </c>
     </row>
     <row r="69" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="35">
+      <c r="A69" s="42">
         <v>7</v>
       </c>
-      <c r="B69" s="37"/>
-      <c r="C69" s="35"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="42"/>
       <c r="D69" s="1" t="s">
         <v>27</v>
       </c>
@@ -1999,9 +2007,9 @@
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="36"/>
+      <c r="A70" s="43"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="43"/>
       <c r="D70" s="2"/>
       <c r="E70" s="5" t="s">
         <v>89</v>
@@ -2014,9 +2022,9 @@
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="36"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="43"/>
       <c r="D71" s="6"/>
       <c r="E71" s="5" t="s">
         <v>13</v>
@@ -2029,9 +2037,9 @@
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="36"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="36"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="43"/>
       <c r="D72" s="6"/>
       <c r="E72" s="5" t="s">
         <v>28</v>
@@ -2044,9 +2052,9 @@
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="36"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="36"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="43"/>
       <c r="D73" s="6"/>
       <c r="E73" s="5" t="s">
         <v>30</v>
@@ -2059,9 +2067,9 @@
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="36"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="43"/>
       <c r="D74" s="6"/>
       <c r="E74" s="5" t="s">
         <v>32</v>
@@ -2074,9 +2082,9 @@
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="36"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="43"/>
       <c r="D75" s="6"/>
       <c r="E75" s="5" t="s">
         <v>23</v>
@@ -2089,9 +2097,9 @@
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="36"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="36"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="43"/>
       <c r="D76" s="6"/>
       <c r="E76" s="5" t="s">
         <v>21</v>
@@ -2104,9 +2112,9 @@
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="36"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="36"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="43"/>
       <c r="D77" s="12"/>
       <c r="E77" s="5" t="s">
         <v>24</v>
@@ -2167,11 +2175,11 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A82" s="35">
+      <c r="A82" s="42">
         <v>8</v>
       </c>
-      <c r="B82" s="37"/>
-      <c r="C82" s="35"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="42"/>
       <c r="D82" s="1" t="s">
         <v>34</v>
       </c>
@@ -2186,9 +2194,9 @@
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="36"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="36"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="43"/>
       <c r="D83" s="2"/>
       <c r="E83" s="5" t="s">
         <v>89</v>
@@ -2201,9 +2209,9 @@
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="36"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="36"/>
+      <c r="A84" s="43"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="43"/>
       <c r="D84" s="6"/>
       <c r="E84" s="5" t="s">
         <v>13</v>
@@ -2216,9 +2224,9 @@
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="36"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="36"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="43"/>
       <c r="D85" s="6"/>
       <c r="E85" s="5" t="s">
         <v>28</v>
@@ -2231,9 +2239,9 @@
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="36"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="36"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="43"/>
       <c r="D86" s="6"/>
       <c r="E86" s="5" t="s">
         <v>35</v>
@@ -2246,9 +2254,9 @@
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="36"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="36"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="43"/>
       <c r="D87" s="6"/>
       <c r="E87" s="5" t="s">
         <v>37</v>
@@ -2261,9 +2269,9 @@
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A88" s="36"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="36"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="43"/>
       <c r="D88" s="6"/>
       <c r="E88" s="5" t="s">
         <v>38</v>
@@ -2278,9 +2286,9 @@
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="36"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="36"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="43"/>
       <c r="D89" s="6"/>
       <c r="E89" s="5" t="s">
         <v>39</v>
@@ -2293,9 +2301,9 @@
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="36"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="36"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="43"/>
       <c r="D90" s="12"/>
       <c r="E90" s="5" t="s">
         <v>40</v>
@@ -2308,9 +2316,9 @@
       <c r="I90" s="13"/>
     </row>
     <row r="91" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="36"/>
-      <c r="B91" s="38"/>
-      <c r="C91" s="36"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="43"/>
       <c r="D91" s="12"/>
       <c r="E91" s="5" t="s">
         <v>41</v>
@@ -2371,11 +2379,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="35">
+      <c r="A96" s="42">
         <v>9</v>
       </c>
-      <c r="B96" s="37"/>
-      <c r="C96" s="35"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="42"/>
       <c r="D96" s="1" t="s">
         <v>42</v>
       </c>
@@ -2390,9 +2398,9 @@
       <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="36"/>
-      <c r="B97" s="38"/>
-      <c r="C97" s="36"/>
+      <c r="A97" s="43"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="43"/>
       <c r="D97" s="2"/>
       <c r="E97" s="5" t="s">
         <v>89</v>
@@ -2405,9 +2413,9 @@
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="36"/>
-      <c r="B98" s="38"/>
-      <c r="C98" s="36"/>
+      <c r="A98" s="43"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="43"/>
       <c r="D98" s="6"/>
       <c r="E98" s="5" t="s">
         <v>13</v>
@@ -2420,9 +2428,9 @@
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="36"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="36"/>
+      <c r="A99" s="43"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="43"/>
       <c r="D99" s="6"/>
       <c r="E99" s="5" t="s">
         <v>28</v>
@@ -2435,9 +2443,9 @@
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="36"/>
-      <c r="B100" s="38"/>
-      <c r="C100" s="36"/>
+      <c r="A100" s="43"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="43"/>
       <c r="D100" s="6"/>
       <c r="E100" s="5" t="s">
         <v>43</v>
@@ -2450,9 +2458,9 @@
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="36"/>
-      <c r="B101" s="38"/>
-      <c r="C101" s="36"/>
+      <c r="A101" s="43"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="43"/>
       <c r="D101" s="6"/>
       <c r="E101" s="5" t="s">
         <v>45</v>
@@ -2465,9 +2473,9 @@
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A102" s="36"/>
-      <c r="B102" s="38"/>
-      <c r="C102" s="36"/>
+      <c r="A102" s="43"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="43"/>
       <c r="D102" s="6"/>
       <c r="E102" s="5" t="s">
         <v>38</v>
@@ -2480,9 +2488,9 @@
       <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="36"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="36"/>
+      <c r="A103" s="43"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="43"/>
       <c r="D103" s="6"/>
       <c r="E103" s="5" t="s">
         <v>39</v>
@@ -2495,9 +2503,9 @@
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="36"/>
-      <c r="B104" s="38"/>
-      <c r="C104" s="36"/>
+      <c r="A104" s="43"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="43"/>
       <c r="D104" s="12"/>
       <c r="E104" s="5" t="s">
         <v>40</v>
@@ -2510,9 +2518,9 @@
       <c r="I104" s="13"/>
     </row>
     <row r="105" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="36"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="36"/>
+      <c r="A105" s="43"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="43"/>
       <c r="D105" s="12"/>
       <c r="E105" s="26" t="s">
         <v>41</v>
@@ -2859,7 +2867,19 @@
       <c r="F132" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="A96:A105"/>
+    <mergeCell ref="B96:B105"/>
+    <mergeCell ref="C96:C105"/>
+    <mergeCell ref="A82:A91"/>
+    <mergeCell ref="B82:B91"/>
+    <mergeCell ref="C82:C91"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="A69:A77"/>
+    <mergeCell ref="B69:B77"/>
+    <mergeCell ref="C69:C77"/>
+    <mergeCell ref="C59:C65"/>
     <mergeCell ref="A27:A33"/>
     <mergeCell ref="B27:B33"/>
     <mergeCell ref="C27:C33"/>
@@ -2876,17 +2896,6 @@
     <mergeCell ref="A49:A55"/>
     <mergeCell ref="B49:B55"/>
     <mergeCell ref="C49:C55"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="A69:A77"/>
-    <mergeCell ref="B69:B77"/>
-    <mergeCell ref="C69:C77"/>
-    <mergeCell ref="C59:C65"/>
-    <mergeCell ref="A96:A105"/>
-    <mergeCell ref="B96:B105"/>
-    <mergeCell ref="C96:C105"/>
-    <mergeCell ref="A82:A91"/>
-    <mergeCell ref="B82:B91"/>
-    <mergeCell ref="C82:C91"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
